--- a/tests/data/error/BadColumnName.xlsx
+++ b/tests/data/error/BadColumnName.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\linelist-aggregation-epimap\tests\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\linelist-aggregation-epimap\tests\data\error\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Linelist" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Date of Assessment</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>GEOID</t>
+  </si>
+  <si>
+    <t>Malaria RDT result</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,15 +497,18 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>DATE(2019,1,6)</f>
         <v>43471</v>
@@ -510,8 +516,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>DATE(2019,1,6)</f>
         <v>43471</v>
@@ -519,8 +528,11 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>DATE(2019,1,6)</f>
         <v>43471</v>
@@ -528,8 +540,11 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>DATE(2019,1,10)</f>
         <v>43475</v>
@@ -537,14 +552,20 @@
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>DATE(2019,1,12)</f>
         <v>43477</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
